--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="8280"/>
+    <workbookView windowWidth="13500" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>DESCRIBE</t>
   </si>
   <si>
+    <t>prefabName</t>
+  </si>
+  <si>
     <t>interactEffectID</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>玩家与其的交互是哪一种</t>
   </si>
   <si>
@@ -101,22 +107,34 @@
     <t>破旧的空箱子，重量和硬度都很适合丢出去，砸坏后留下易燃的木屑</t>
   </si>
   <si>
+    <t>WoodenCrate</t>
+  </si>
+  <si>
     <t>篮球</t>
   </si>
   <si>
     <t>有弹性的球，可以反复丢而不会坏，可以被收纳进推车</t>
   </si>
   <si>
+    <t>Basketball</t>
+  </si>
+  <si>
     <t>花瓶</t>
   </si>
   <si>
     <t>丢出去会发出很大响声，摔碎后要注意扎脚</t>
   </si>
   <si>
+    <t>Vase</t>
+  </si>
+  <si>
     <t>娃娃头</t>
   </si>
   <si>
     <t>某个洋娃娃的头，好像他们都想要</t>
+  </si>
+  <si>
+    <t>DollHead</t>
   </si>
 </sst>
 </file>
@@ -744,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +776,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1077,25 +1098,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="63.0666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.1333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.4666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.8666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.7333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.4666666666667" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.1333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.4666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.8666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.7333333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.4666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1111,178 +1133,205 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="67.05" customHeight="1" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="67.05" customHeight="1" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5" s="2">
         <v>230001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1002</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="2">
+        <v>900002</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6" s="2">
         <v>230002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1002</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>900002</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:9">
       <c r="B7" s="2">
         <v>230003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1002</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="2">
+        <v>900002</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>230004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2">
+        <v>900002</v>
       </c>
     </row>
   </sheetData>

--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0514637D-CA08-486E-AEA5-21224E51F01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2C5630-50AE-4420-B726-A7B680C294A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="885" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9450" yWindow="945" windowWidth="18210" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -34,9 +34,6 @@
     <t>DESCRIBE</t>
   </si>
   <si>
-    <t>prefabName</t>
-  </si>
-  <si>
     <t>interactEffectID</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>预制体名称</t>
-  </si>
-  <si>
     <t>玩家与其的交互是哪一种</t>
   </si>
   <si>
@@ -118,18 +112,6 @@
     <t>某个洋娃娃的头，好像他们都想要</t>
   </si>
   <si>
-    <t>Throw_WoodenCrate</t>
-  </si>
-  <si>
-    <t>Throw_Basketball</t>
-  </si>
-  <si>
-    <t>Throw_Vase</t>
-  </si>
-  <si>
-    <t>Throw_DollHead</t>
-  </si>
-  <si>
     <t>IconName</t>
   </si>
   <si>
@@ -146,6 +128,21 @@
   </si>
   <si>
     <t>Icon_Throw_DollHead</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>Sprite_Throw_WoodenCrate</t>
+  </si>
+  <si>
+    <t>Sprite_Throw_Basketball</t>
+  </si>
+  <si>
+    <t>Sprite_Throw_Vase</t>
+  </si>
+  <si>
+    <t>Sprite_Throw_DollHead</t>
   </si>
 </sst>
 </file>
@@ -195,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,9 +206,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,26 +481,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="63" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="13.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -522,230 +515,224 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="6"/>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="13.5">
+      <c r="A3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="67.150000000000006" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="5"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="67.150000000000006" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:11" ht="30">
       <c r="B5" s="2">
         <v>230001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>900002</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2">
-        <v>900002</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>16</v>
-      </c>
       <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="B6" s="2">
         <v>230002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>900002</v>
       </c>
       <c r="F6" s="2">
-        <v>900002</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
         <v>4</v>
       </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
       <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="B7" s="2">
         <v>230003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>900002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2">
-        <v>900002</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>8</v>
-      </c>
       <c r="J7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="B8" s="2">
         <v>230004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2">
+        <v>900002</v>
+      </c>
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="2">
-        <v>900002</v>
-      </c>
       <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2C5630-50AE-4420-B726-A7B680C294A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED3C5E-DC42-42F0-A11C-B2A0F7FD2430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="945" windowWidth="18210" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -118,31 +118,40 @@
     <t>物品图标名称</t>
   </si>
   <si>
-    <t>Icon_Throw_WoodenCrate</t>
-  </si>
-  <si>
-    <t>Icon_Throw_Basketball</t>
-  </si>
-  <si>
-    <t>Icon_Throw_Vase</t>
-  </si>
-  <si>
-    <t>Icon_Throw_DollHead</t>
-  </si>
-  <si>
     <t>SpriteName</t>
   </si>
   <si>
-    <t>Sprite_Throw_WoodenCrate</t>
-  </si>
-  <si>
-    <t>Sprite_Throw_Basketball</t>
-  </si>
-  <si>
-    <t>Sprite_Throw_Vase</t>
-  </si>
-  <si>
-    <t>Sprite_Throw_DollHead</t>
+    <t>Icon_Item_Throw_WoodenCrate</t>
+  </si>
+  <si>
+    <t>Icon_Item_Throw_Basketball</t>
+  </si>
+  <si>
+    <t>Icon_Item_Throw_Vase</t>
+  </si>
+  <si>
+    <t>Icon_Item_Throw_DollHead</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Throw_WoodenCrate</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Throw_Basketball</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Throw_Vase</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Throw_DollHead</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
+    <t>P_Item_Throw</t>
   </si>
 </sst>
 </file>
@@ -483,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -496,7 +505,9 @@
     <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="28.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="13.5">
@@ -528,7 +539,10 @@
         <v>30</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5">
@@ -562,6 +576,9 @@
       <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="13.5">
       <c r="A3" s="3" t="s">
@@ -592,6 +609,9 @@
       <c r="J3" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="67.150000000000006" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -622,6 +642,9 @@
         <v>31</v>
       </c>
       <c r="J4" s="5"/>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="30">
       <c r="B5" s="2">
@@ -646,12 +669,14 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="B6" s="2">
@@ -676,12 +701,14 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="2">
@@ -706,12 +733,14 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="2">
@@ -727,12 +756,14 @@
         <v>900002</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED3C5E-DC42-42F0-A11C-B2A0F7FD2430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28185" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,6 +53,15 @@
     <t>attack</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -88,81 +104,78 @@
     <t>攻击力</t>
   </si>
   <si>
+    <t>物品图标名称</t>
+  </si>
+  <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>木箱</t>
   </si>
   <si>
     <t>破旧的空箱子，重量和硬度都很适合丢出去，砸坏后留下易燃的木屑</t>
   </si>
   <si>
+    <t>Icon_Item_Throw_WoodenCrate</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Throw_WoodenCrate</t>
+  </si>
+  <si>
+    <t>P_Item_Throw</t>
+  </si>
+  <si>
     <t>篮球</t>
   </si>
   <si>
     <t>有弹性的球，可以反复丢而不会坏，可以被收纳进推车</t>
   </si>
   <si>
+    <t>Icon_Item_Throw_Basketball</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Throw_Basketball</t>
+  </si>
+  <si>
     <t>花瓶</t>
   </si>
   <si>
     <t>丢出去会发出很大响声，摔碎后要注意扎脚</t>
   </si>
   <si>
+    <t>Icon_Item_Throw_Vase</t>
+  </si>
+  <si>
+    <t>Sprite_Item_Throw_Vase</t>
+  </si>
+  <si>
     <t>娃娃头</t>
   </si>
   <si>
     <t>某个洋娃娃的头，好像他们都想要</t>
   </si>
   <si>
-    <t>IconName</t>
-  </si>
-  <si>
-    <t>物品图标名称</t>
-  </si>
-  <si>
-    <t>SpriteName</t>
-  </si>
-  <si>
-    <t>Icon_Item_Throw_WoodenCrate</t>
-  </si>
-  <si>
-    <t>Icon_Item_Throw_Basketball</t>
-  </si>
-  <si>
-    <t>Icon_Item_Throw_Vase</t>
-  </si>
-  <si>
     <t>Icon_Item_Throw_DollHead</t>
   </si>
   <si>
-    <t>Sprite_Item_Throw_WoodenCrate</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Throw_Basketball</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Throw_Vase</t>
-  </si>
-  <si>
     <t>Sprite_Item_Throw_DollHead</t>
-  </si>
-  <si>
-    <t>PrefabName</t>
-  </si>
-  <si>
-    <t>预制体名称</t>
-  </si>
-  <si>
-    <t>P_Item_Throw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -178,16 +191,346 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -195,9 +538,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -224,17 +809,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -484,33 +1113,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="3" width="9" style="2"/>
     <col min="4" max="4" width="63" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.1416666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.425" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.8583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.7083333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.425" style="2" customWidth="1"/>
+    <col min="10" max="10" width="36.425" style="2" customWidth="1"/>
+    <col min="11" max="11" width="31.7083333333333" customWidth="1"/>
+    <col min="18" max="18" width="16.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="13.5">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,125 +1165,125 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="13.5">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="67.150000000000006" customHeight="1">
+    <row r="4" s="1" customFormat="1" ht="67.15" customHeight="1" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="2:11">
       <c r="B5" s="2">
         <v>230001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
         <v>900002</v>
@@ -669,24 +1298,24 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="2:11">
       <c r="B6" s="2">
         <v>230002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>900002</v>
@@ -704,21 +1333,21 @@
         <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="2:11">
       <c r="B7" s="2">
         <v>230003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2">
         <v>900002</v>
@@ -733,40 +1362,41 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="2:11">
       <c r="B8" s="2">
         <v>230004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>900002</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28185" windowHeight="6270"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1213,7 +1213,9 @@
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>

--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16455" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>

--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="7650"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,12 +336,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -662,7 +668,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -686,16 +692,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -704,93 +710,96 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -803,6 +812,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1122,52 +1137,52 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.1416666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.425" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.8583333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.7083333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.425" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.425" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="63" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.1416666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.425" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.8583333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.7083333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.425" style="3" customWidth="1"/>
+    <col min="10" max="10" width="36.425" style="3" customWidth="1"/>
     <col min="11" max="11" width="31.7083333333333" customWidth="1"/>
     <col min="18" max="18" width="16.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1175,34 +1190,34 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1210,34 +1225,34 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1245,122 +1260,122 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="67.15" customHeight="1" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="2">
+    <row r="5" s="2" customFormat="1" spans="2:11">
+      <c r="B5" s="7">
         <v>230001</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>900002</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="7">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="2">
+    <row r="6" s="2" customFormat="1" spans="2:11">
+      <c r="B6" s="7">
         <v>230002</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>900002</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>230003</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>900002</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>8</v>
       </c>
       <c r="I7" t="s">
@@ -1369,21 +1384,21 @@
       <c r="J7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>230004</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>900002</v>
       </c>
       <c r="I8" t="s">
@@ -1392,7 +1407,7 @@
       <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>31</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -792,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,9 +818,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1134,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1356,35 +1353,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="3">
+    <row r="7" s="2" customFormat="1" spans="2:11">
+      <c r="B7" s="7">
         <v>230003</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>900002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
     </row>

--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B858D38-163B-47B0-A3C8-E6B412ECF56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18480" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -115,6 +122,9 @@
     <t>Sprite_Item_Throw_WoodenCrate</t>
   </si>
   <si>
+    <t>P_Item_Throw_WoodenCrate</t>
+  </si>
+  <si>
     <t>篮球</t>
   </si>
   <si>
@@ -127,6 +137,9 @@
     <t>Sprite_Item_Throw_Basketball</t>
   </si>
   <si>
+    <t>P_Item_Throw_Basketball</t>
+  </si>
+  <si>
     <t>花瓶</t>
   </si>
   <si>
@@ -139,39 +152,24 @@
     <t>Sprite_Item_Throw_Vase</t>
   </si>
   <si>
-    <t>娃娃头</t>
-  </si>
-  <si>
-    <t>某个洋娃娃的头，好像他们都想要</t>
-  </si>
-  <si>
-    <t>Icon_Item_Throw_DollHead</t>
-  </si>
-  <si>
-    <t>Sprite_Item_Throw_DollHead</t>
-  </si>
-  <si>
-    <t>P_Item_Throw_WoodenCrate</t>
-  </si>
-  <si>
-    <t>P_Item_Throw_Basketball</t>
-  </si>
-  <si>
     <t>P_Item_Throw_Vase</t>
-  </si>
-  <si>
-    <t>P_Item_Throw_DollHead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -187,8 +185,152 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +343,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -210,9 +538,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -245,17 +815,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,33 +1119,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="3" width="9" style="3"/>
     <col min="4" max="4" width="63" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.1416666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.425" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.8583333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.7083333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.425" style="3" customWidth="1"/>
+    <col min="10" max="10" width="36.425" style="3" customWidth="1"/>
+    <col min="11" max="11" width="31.7083333333333" customWidth="1"/>
+    <col min="18" max="18" width="16.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="13.5">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -566,7 +1180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -601,7 +1215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="13.5">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -636,7 +1250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="67.150000000000006" customHeight="1">
+    <row r="4" s="1" customFormat="1" ht="67.15" customHeight="1" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -669,7 +1283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="30">
+    <row r="5" s="2" customFormat="1" spans="2:11">
       <c r="B5" s="7">
         <v>230001</v>
       </c>
@@ -698,18 +1312,18 @@
         <v>30</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="2:11">
       <c r="B6" s="7">
         <v>230002</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7">
         <v>900002</v>
@@ -724,24 +1338,24 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1">
+    <row r="7" s="2" customFormat="1" spans="2:11">
       <c r="B7" s="7">
         <v>230003</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7">
         <v>900002</v>
@@ -756,40 +1370,23 @@
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="3">
-        <v>230004</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3">
-        <v>900002</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>46</v>
-      </c>
+    <row r="8" spans="9:11">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFED703C-1EB3-405D-8CFC-1EF6B0E5053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="12255"/>
+    <workbookView xWindow="-810" yWindow="1755" windowWidth="27975" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -158,18 +151,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -185,152 +172,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,194 +186,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -538,251 +195,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -815,61 +230,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1119,33 +490,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="9" style="3"/>
     <col min="4" max="4" width="63" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.1416666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.425" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.8583333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.7083333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.425" style="3" customWidth="1"/>
-    <col min="10" max="10" width="36.425" style="3" customWidth="1"/>
-    <col min="11" max="11" width="31.7083333333333" customWidth="1"/>
-    <col min="18" max="18" width="16.1416666666667" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="13.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1215,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="13.5">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1250,7 +621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="67.15" customHeight="1" spans="1:11">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="67.150000000000006" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1283,7 +654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:11">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="30">
       <c r="B5" s="7">
         <v>230001</v>
       </c>
@@ -1315,7 +686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:11">
+    <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="B6" s="7">
         <v>230002</v>
       </c>
@@ -1347,7 +718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:11">
+    <row r="7" spans="1:11" s="2" customFormat="1">
       <c r="B7" s="7">
         <v>230003</v>
       </c>
@@ -1379,7 +750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="9:11">
+    <row r="8" spans="1:11">
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8" s="3"/>
@@ -1387,6 +758,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFED703C-1EB3-405D-8CFC-1EF6B0E5053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC26B51-22D8-4690-B4C7-4A9F24E25BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-810" yWindow="1755" windowWidth="27975" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="2400" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_ThrowObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC26B51-22D8-4690-B4C7-4A9F24E25BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A0CF99-2F0D-4CAD-80A1-847D27E05CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="2400" windowWidth="21450" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
